--- a/manual/Release/Program_Release.xlsx
+++ b/manual/Release/Program_Release.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="105" yWindow="-45" windowWidth="10575" windowHeight="6375"/>
+    <workbookView xWindow="105" yWindow="-45" windowWidth="10575" windowHeight="6375" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="1.Release Procedure" sheetId="5" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="90">
   <si>
     <t>#stop the app servers</t>
   </si>
@@ -446,6 +446,10 @@
   </si>
   <si>
     <t>If the module is common module , you had better install the moudle on base db ( db used for copy to new client db) also.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>git clone https://xxxxxx.xxxxxxx.xxxxx.git /home/(user)/temp_dev/release</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -869,7 +873,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
@@ -1009,8 +1013,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M60"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1060,7 +1064,7 @@
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.15">
       <c r="C12" s="4" t="s">
-        <v>32</v>
+        <v>89</v>
       </c>
       <c r="M12" s="4" t="s">
         <v>38</v>

--- a/manual/Release/Program_Release.xlsx
+++ b/manual/Release/Program_Release.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="91">
   <si>
     <t>#stop the app servers</t>
   </si>
@@ -450,6 +450,10 @@
   </si>
   <si>
     <t>git clone https://xxxxxx.xxxxxxx.xxxxx.git /home/(user)/temp_dev/release</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TEMP_DIR="/home/(user)/temp_dev/upload"</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1014,7 +1018,7 @@
   <dimension ref="B2:M60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1122,7 +1126,7 @@
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.15">
       <c r="C26" s="2" t="s">
-        <v>67</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.15">

--- a/manual/Release/Program_Release.xlsx
+++ b/manual/Release/Program_Release.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\esl01298shr\Philippines Project\クロージング\技術移転資料一式\manual\Release\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daime\OneDrive\デスクトップ\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C729988E-FFD8-48EE-B33B-90A0EF7C4005}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="105" yWindow="-45" windowWidth="10575" windowHeight="6375" activeTab="1"/>
+    <workbookView xWindow="3045" yWindow="660" windowWidth="22890" windowHeight="15060" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1.Release Procedure" sheetId="5" r:id="rId1"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="98">
   <si>
     <t>#stop the app servers</t>
   </si>
@@ -409,10 +410,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>7. After test , stop test server</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>(2) stop test server</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -454,13 +451,45 @@
   </si>
   <si>
     <t>TEMP_DIR="/home/(user)/temp_dev/upload"</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>add 0530</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7. access to the url  , and take backup before program upload</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(1) access the url</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    * you need special db password ( refer to password.xls)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(2) goto [Manage Database] and take backup for target db</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8 .login by admin user in the target db , and install or update the  module</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(3) the db backup includes raw data , so need to keep it by encoding</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>9. After test , stop test server</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -664,6 +693,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -699,6 +745,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -874,7 +937,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -885,12 +948,12 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B3" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
@@ -916,7 +979,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
@@ -958,7 +1021,7 @@
     </row>
     <row r="22" spans="2:4" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C22" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.15">
@@ -989,22 +1052,22 @@
     <row r="29" spans="2:4" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="30" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B30" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C32" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="34" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C34" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1014,11 +1077,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:M60"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A2:M69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1068,7 +1131,7 @@
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.15">
       <c r="C12" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M12" s="4" t="s">
         <v>38</v>
@@ -1126,7 +1189,7 @@
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.15">
       <c r="C26" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.15">
@@ -1226,58 +1289,95 @@
         <v>55</v>
       </c>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C49" s="4" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B51" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C52" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
       <c r="D53" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C54" s="4" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B56" s="4" t="s">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B56" s="5"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A57" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C58" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C59" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B60" s="5"/>
+      <c r="C60" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C61" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A64" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B66" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C67" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D68" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C69" s="4" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C57" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="D58" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C59" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B60" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="B49" r:id="rId1" location="%E5%A4%89%E6%95%B0-var1-%E3%81%AE%E5%80%A4%E3%82%92%E8%A1%A8%E7%A4%BA%E3%81%99%E3%82%8B" display="https://shellscript.sunone.me/variable.html - %E5%A4%89%E6%95%B0-var1-%E3%81%AE%E5%80%A4%E3%82%92%E8%A1%A8%E7%A4%BA%E3%81%99%E3%82%8B"/>
+    <hyperlink ref="B49" r:id="rId1" location="%E5%A4%89%E6%95%B0-var1-%E3%81%AE%E5%80%A4%E3%82%92%E8%A1%A8%E7%A4%BA%E3%81%99%E3%82%8B" display="https://shellscript.sunone.me/variable.html - %E5%A4%89%E6%95%B0-var1-%E3%81%AE%E5%80%A4%E3%82%92%E8%A1%A8%E7%A4%BA%E3%81%99%E3%82%8B" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -1285,11 +1385,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:M65"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A2:M69"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G76" sqref="G76:G77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1521,7 +1621,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.15">
       <c r="C49" s="3" t="s">
         <v>75</v>
       </c>
@@ -1529,12 +1629,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B52" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.15">
       <c r="C54" s="4" t="s">
         <v>57</v>
       </c>
@@ -1542,7 +1642,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B56" s="4" t="s">
         <v>56</v>
       </c>
@@ -1550,22 +1650,22 @@
         <v>47</v>
       </c>
     </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.15">
       <c r="C57" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.15">
       <c r="D58" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="59" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.15">
       <c r="C59" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="60" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.15">
       <c r="C60" s="4" t="s">
         <v>52</v>
       </c>
@@ -1573,8 +1673,42 @@
         <v>47</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A62" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="C63" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="C64" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B65" s="5"/>
+      <c r="C65" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C66" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A69" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>95</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/manual/Release/Program_Release.xlsx
+++ b/manual/Release/Program_Release.xlsx
@@ -1,28 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daime\OneDrive\デスクトップ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\Google\webcoop_other\manual\Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C729988E-FFD8-48EE-B33B-90A0EF7C4005}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{066A656D-6E87-4924-BC70-A92F96D3106E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3045" yWindow="660" windowWidth="22890" windowHeight="15060" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1.Release Procedure" sheetId="5" r:id="rId1"/>
     <sheet name="2.Release script for testserver" sheetId="8" r:id="rId2"/>
     <sheet name="3.Release script for production" sheetId="7" r:id="rId3"/>
+    <sheet name="Actual" sheetId="10" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="137">
   <si>
     <t>#stop the app servers</t>
   </si>
@@ -41,7 +42,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -52,7 +53,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -62,34 +63,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <t>APP2="</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>centos@</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>13.229.27.30"</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>#backup first</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -199,18 +172,6 @@
   </si>
   <si>
     <t>git clone https://xxxxxx.xxxxxxx.xxxxx.git /home/(user)/temp/release</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>sudo rm -rf /home/(user)/temp/release</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>sudo rm -rf /home/(user)/temp/backup</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>sudo rm -rf /home/(user)/temp/upload</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -357,7 +318,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -368,7 +329,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -485,23 +446,152 @@
     <t>9. After test , stop test server</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>(1) remove folders used for previous release</t>
+  </si>
+  <si>
+    <t>sudo rm -rf /home/ubuntu/temp/Webcoop/release</t>
+  </si>
+  <si>
+    <t>sudo rm -rf /home/ubuntu/temp/Webcoop/backup</t>
+  </si>
+  <si>
+    <t>sudo rm -rf /home/ubuntu/temp/Webcoop/upload</t>
+  </si>
+  <si>
+    <t>git clone https://github.com/AllianceWebcoop/webcoop_source.git /home/ubuntu/temp/Webcoop/release</t>
+  </si>
+  <si>
+    <t>APP1="centos@13.228.36.174"</t>
+  </si>
+  <si>
+    <t>0. Prepare key in developers PC</t>
+  </si>
+  <si>
+    <t>Locate [MyCoopApp_KP.pem] in home directory. (if you place it in other folder , please change part of script of #4 )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Prepare environment in developers PC </t>
+  </si>
+  <si>
+    <t>2.  clone git repository's source to [release] folder</t>
+  </si>
+  <si>
+    <t>3. change security group setting on app server for ssh access from current pc</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>(1) access to AWS' console</t>
+  </si>
+  <si>
+    <t>refer to [AWS_console_access.xlsx]</t>
+  </si>
+  <si>
+    <t>(2)add current pc's ip for allowing ssh access, in security group of app server1 .</t>
+  </si>
+  <si>
+    <t>4. execute release script</t>
+  </si>
+  <si>
+    <t>#!/bin/bash</t>
+  </si>
+  <si>
+    <t>BACKUP_DIR="/home/ubuntu/temp/Webcoop/backup"</t>
+  </si>
+  <si>
+    <t>SOURCE_DIR="/home/ubuntu/temp/Webcoop/release"</t>
+  </si>
+  <si>
+    <t>TEMP_DIR="/home/ubuntu/temp/Webcoop/upload"</t>
+  </si>
+  <si>
+    <t>#backup first</t>
+  </si>
+  <si>
+    <t>rsync -avz -e "ssh -i ~/MyCoopApp_KP.pem" $APP1:/opt/webcoop/data/webcoop/* $BACKUP_DIR/</t>
+  </si>
+  <si>
+    <t>python -m compileall $SOURCE_DIR/</t>
+  </si>
+  <si>
+    <t>rm -rf $TEMP_DIR/*</t>
+  </si>
+  <si>
+    <t>rsync -avz --include="__*.py" --exclude=".*" --exclude="*.py" --exclude="*notes.txt" --exclude="*.md" $SOURCE_DIR/ $TEMP_DIR/</t>
+  </si>
+  <si>
+    <t>ssh $APP1 -i ~/MyCoopApp_KP.pem "cd /opt/webcoop &amp;&amp; docker-compose stop app"</t>
+  </si>
+  <si>
+    <t>#copy the software remotely to the app servers(at first , delete every addon files(add 20191206)</t>
+  </si>
+  <si>
+    <t>ssh $APP1 -i ~/MyCoopApp_KP.pem "rm -rf /opt/webcoop/data/webcoop/*"</t>
+  </si>
+  <si>
+    <t>rsync -avz -e "ssh -i ~/MyCoopApp_KP.pem" $TEMP_DIR/* $APP1:/opt/webcoop/data/webcoop/</t>
+  </si>
+  <si>
+    <t>*avoid rejection for big files</t>
+  </si>
+  <si>
+    <t>*If error=</t>
+  </si>
+  <si>
+    <t>rsync -avz --bwlimit=150 -e "ssh -i ~/MyCoopApp_KP.pem" $TEMP_DIR/* $APP1:/opt/webcoop/data/webcoop/</t>
+  </si>
+  <si>
+    <t>ssh $APP1 -i ~/MyCoopApp_KP.pem "cd /opt/webcoop &amp;&amp; docker-compose restart app"</t>
+  </si>
+  <si>
+    <t>5. rename backup folder for keeping</t>
+  </si>
+  <si>
+    <t>mv /home/ubuntu/temp/Webcoop/backup  /home/ubuntu/temp/Webcoop/backup_20200602</t>
+  </si>
+  <si>
+    <t>6 change back aws security group setting</t>
+  </si>
+  <si>
+    <t>(2) remove ssh(port 22) access in inbound setting of appserver 1</t>
+  </si>
+  <si>
+    <t>7. access to the url  , and take backup before program upload</t>
+  </si>
+  <si>
+    <t>(1) access the url</t>
+  </si>
+  <si>
+    <t>(2) goto [Manage Database] and take backup for target db</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    * you need special db password ( refer to password.xls)</t>
+  </si>
+  <si>
+    <t>(3) the db backup includes raw data , so need to keep it by encoding</t>
+  </si>
+  <si>
+    <t>8 .login by admin user in the target db , and install or update the  module</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -510,7 +600,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -518,7 +608,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -601,8 +691,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -618,7 +708,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -944,130 +1034,130 @@
       <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="4.42578125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="4" customFormat="1">
+      <c r="B3" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="4" customFormat="1"/>
+    <row r="5" spans="1:4">
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="C12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="4" customFormat="1"/>
+    <row r="14" spans="1:4" s="4" customFormat="1">
+      <c r="B14" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" s="4" customFormat="1">
+      <c r="C15" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" s="4" customFormat="1">
+      <c r="D16" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" s="4" customFormat="1">
+      <c r="D17" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" s="4" customFormat="1">
+      <c r="D18" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" s="4" customFormat="1">
+      <c r="D19" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" s="4" customFormat="1"/>
+    <row r="21" spans="2:4">
+      <c r="B21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" s="4" customFormat="1">
+      <c r="C22" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="B24" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4">
+      <c r="C25" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" s="4" customFormat="1">
+      <c r="D26" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" s="4" customFormat="1">
+      <c r="D27" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" s="4" customFormat="1">
+      <c r="D28" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" s="4" customFormat="1"/>
+    <row r="30" spans="2:4">
+      <c r="B30" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="4" t="s">
+    <row r="31" spans="2:4">
+      <c r="C31" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C12" t="s">
+    <row r="32" spans="2:4">
+      <c r="C32" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C15" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D16" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D17" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D18" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D19" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B21" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C22" s="4" t="s">
+    <row r="34" spans="3:3">
+      <c r="C34" t="s">
         <v>83</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B24" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C25" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D26" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D27" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D28" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B30" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C31" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C32" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C34" t="s">
-        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1080,298 +1170,298 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:M69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B67" sqref="B67"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:13">
       <c r="B2" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13">
+      <c r="C3" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13">
+      <c r="B5" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13">
+      <c r="C6" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13">
+      <c r="C7" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13">
+      <c r="C8" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13">
+      <c r="C9" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13">
+      <c r="B11" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13">
+      <c r="C12" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13">
+      <c r="B14" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13">
+      <c r="C15" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13">
+      <c r="D16" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="C3" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B5" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="C6" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="C7" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="C8" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="C9" s="4" t="s">
+    <row r="17" spans="2:13">
+      <c r="C17" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13">
+      <c r="C18" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B11" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="C12" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="M12" s="4" t="s">
+    <row r="19" spans="2:13">
+      <c r="D19" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13">
+      <c r="B21" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13">
+      <c r="C23" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B14" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="C15" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="D16" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="C17" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="C18" s="4" t="s">
+    <row r="24" spans="2:13">
+      <c r="C24" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="D19" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B21" s="4" t="s">
+    <row r="25" spans="2:13">
+      <c r="C25" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13">
+      <c r="C26" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13">
+      <c r="C27" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="M27" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13">
+      <c r="C28" s="2"/>
+    </row>
+    <row r="29" spans="2:13">
+      <c r="C29" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13">
+      <c r="C30" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="M30" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="C23" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="C24" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="C25" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="C26" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="C27" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="M27" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="C28" s="2"/>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="C29" s="2" t="s">
+    <row r="31" spans="2:13">
+      <c r="C31" s="2"/>
+    </row>
+    <row r="32" spans="2:13">
+      <c r="C32" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13">
+      <c r="C33" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="C30" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="M30" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="C31" s="2"/>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="C32" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="C33" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:13">
       <c r="C34" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13">
       <c r="C35" s="2"/>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:13">
       <c r="C36" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:13">
       <c r="C37" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.15">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13">
       <c r="C38" s="2"/>
       <c r="M38" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13">
+      <c r="C39" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="C39" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:13">
       <c r="C40" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.15">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13">
       <c r="C41" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.15">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13">
       <c r="C42" s="2"/>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:13">
       <c r="C43" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:13">
       <c r="C44" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.15">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13">
       <c r="C45" s="3"/>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:13">
       <c r="B47" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="C49" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="B51" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="C52" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="D53" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="C54" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="B56" s="5"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:4">
       <c r="A57" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="C58" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="C59" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B57" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C58" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C59" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="60" spans="1:4">
       <c r="B60" s="5"/>
       <c r="C60" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="C61" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4">
+      <c r="B66" s="4" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C61" s="4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A64" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B66" s="4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:4">
       <c r="C67" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.15">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4">
       <c r="D68" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.15">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4">
       <c r="C69" s="4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1388,326 +1478,324 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:M69"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G76" sqref="G76:G77"/>
+    <sheetView topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:13">
       <c r="B2" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13">
+      <c r="C3" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13">
+      <c r="B5" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13">
+      <c r="C6" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13">
+      <c r="C7" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13">
+      <c r="C8" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13">
+      <c r="C9" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13">
+      <c r="B11" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13">
+      <c r="C12" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13">
+      <c r="B14" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13">
+      <c r="C15" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13">
+      <c r="D16" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="C3" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B5" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="C6" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="C7" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="C8" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="C9" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B11" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="C12" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="M12" s="4" t="s">
+    <row r="17" spans="2:13">
+      <c r="C17" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13">
+      <c r="C18" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13">
+      <c r="D19" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13">
+      <c r="B21" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13">
+      <c r="C23" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B14" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="C15" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="D16" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="C17" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="M17" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="C18" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="D19" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B21" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="C23" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:13">
       <c r="C24" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.15">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13">
       <c r="C25" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.15">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13">
       <c r="C26" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.15">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13">
       <c r="C27" s="2" t="s">
         <v>3</v>
       </c>
       <c r="M27" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="C28" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13">
+      <c r="C28" s="2"/>
+      <c r="M28" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13">
+      <c r="C29" s="2"/>
+    </row>
+    <row r="30" spans="2:13">
+      <c r="C30" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M28" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="C29" s="2"/>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="C30" s="2" t="s">
+    </row>
+    <row r="31" spans="2:13">
+      <c r="C31" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="M31" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13">
+      <c r="C32" s="2"/>
+    </row>
+    <row r="33" spans="3:13">
+      <c r="C33" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="3:13">
+      <c r="C34" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="C31" s="4" t="s">
+    <row r="35" spans="3:13">
+      <c r="C35" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M31" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="C32" s="2"/>
-    </row>
-    <row r="33" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="C33" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="C34" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="C35" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="36" spans="3:13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="36" spans="3:13">
       <c r="C36" s="2"/>
     </row>
-    <row r="37" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="37" spans="3:13">
       <c r="C37" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="38" spans="3:13">
       <c r="C38" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="3:13">
+      <c r="C39" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M39" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="40" spans="3:13">
+      <c r="C40" s="2"/>
+    </row>
+    <row r="41" spans="3:13">
+      <c r="C41" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="42" spans="3:13">
+      <c r="C42" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="43" spans="3:13">
+      <c r="C43" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="C39" s="2" t="s">
+    <row r="44" spans="3:13">
+      <c r="C44" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M44" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="3:13">
+      <c r="C45" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M39" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="40" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="C40" s="2"/>
-    </row>
-    <row r="41" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="C41" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="42" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="C42" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="43" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="C43" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="44" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="C44" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="M44" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="45" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="C45" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="M45" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="46" spans="3:13" x14ac:dyDescent="0.15">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="3:13">
       <c r="C46" s="2"/>
     </row>
-    <row r="47" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="47" spans="3:13">
       <c r="C47" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="48" spans="3:13">
       <c r="C48" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:13">
       <c r="C49" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="M49" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.15">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
       <c r="B52" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.15">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
       <c r="C54" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M54" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.15">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
       <c r="B56" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="M56" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.15">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
       <c r="C57" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.15">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
       <c r="D58" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.15">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
       <c r="C59" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
       <c r="C60" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="M60" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.15">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
       <c r="A62" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
+      <c r="C63" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
+      <c r="C64" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B62" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="C63" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="C64" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="65" spans="1:3">
       <c r="B65" s="5"/>
       <c r="C65" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.15">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
       <c r="C66" s="4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.15">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
       <c r="A69" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -1715,4 +1803,1587 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFAEA2F5-6CB9-4C1D-B786-B071B2B8FE0A}">
+  <dimension ref="A1:N92"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P27" sqref="P27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" s="4"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="4"/>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4"/>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="4"/>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="4"/>
+    </row>
+    <row r="35" spans="1:14">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
+    </row>
+    <row r="36" spans="1:14">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="4"/>
+    </row>
+    <row r="37" spans="1:14">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
+    </row>
+    <row r="38" spans="1:14">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="4"/>
+      <c r="N38" s="4"/>
+    </row>
+    <row r="39" spans="1:14">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="4"/>
+      <c r="M39" s="4"/>
+      <c r="N39" s="4"/>
+    </row>
+    <row r="40" spans="1:14">
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="4"/>
+      <c r="N40" s="4"/>
+    </row>
+    <row r="41" spans="1:14">
+      <c r="A41" s="4"/>
+      <c r="B41" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="4"/>
+      <c r="M41" s="4"/>
+      <c r="N41" s="4"/>
+    </row>
+    <row r="42" spans="1:14">
+      <c r="A42" s="4"/>
+      <c r="B42" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="4"/>
+      <c r="M42" s="4"/>
+      <c r="N42" s="4"/>
+    </row>
+    <row r="43" spans="1:14">
+      <c r="A43" s="4"/>
+      <c r="B43" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="4"/>
+      <c r="L43" s="4"/>
+      <c r="M43" s="4"/>
+      <c r="N43" s="4"/>
+    </row>
+    <row r="44" spans="1:14">
+      <c r="A44" s="4"/>
+      <c r="B44" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="4"/>
+      <c r="L44" s="4"/>
+      <c r="M44" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="N44" s="4"/>
+    </row>
+    <row r="45" spans="1:14">
+      <c r="A45" s="4"/>
+      <c r="B45" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="4"/>
+      <c r="L45" s="4"/>
+      <c r="M45" s="4"/>
+      <c r="N45" s="4"/>
+    </row>
+    <row r="46" spans="1:14">
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="4"/>
+      <c r="L46" s="4"/>
+      <c r="M46" s="4"/>
+      <c r="N46" s="4"/>
+    </row>
+    <row r="47" spans="1:14">
+      <c r="A47" s="4"/>
+      <c r="B47" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
+      <c r="K47" s="4"/>
+      <c r="L47" s="4"/>
+      <c r="M47" s="4"/>
+      <c r="N47" s="4"/>
+    </row>
+    <row r="48" spans="1:14">
+      <c r="A48" s="4"/>
+      <c r="B48" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
+      <c r="K48" s="4"/>
+      <c r="L48" s="4"/>
+      <c r="M48" s="4"/>
+      <c r="N48" s="4"/>
+    </row>
+    <row r="49" spans="1:14">
+      <c r="A49" s="4"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
+      <c r="K49" s="4"/>
+      <c r="L49" s="4"/>
+      <c r="M49" s="4"/>
+      <c r="N49" s="4"/>
+    </row>
+    <row r="50" spans="1:14">
+      <c r="A50" s="4"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
+      <c r="J50" s="4"/>
+      <c r="K50" s="4"/>
+      <c r="L50" s="4"/>
+      <c r="M50" s="4"/>
+      <c r="N50" s="4"/>
+    </row>
+    <row r="51" spans="1:14">
+      <c r="A51" s="4"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
+      <c r="J51" s="4"/>
+      <c r="K51" s="4"/>
+      <c r="L51" s="4"/>
+      <c r="M51" s="4"/>
+      <c r="N51" s="4"/>
+    </row>
+    <row r="52" spans="1:14">
+      <c r="A52" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
+      <c r="J52" s="4"/>
+      <c r="K52" s="4"/>
+      <c r="L52" s="4"/>
+      <c r="M52" s="4"/>
+      <c r="N52" s="4"/>
+    </row>
+    <row r="53" spans="1:14">
+      <c r="A53" s="4"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="4"/>
+      <c r="J53" s="4"/>
+      <c r="K53" s="4"/>
+      <c r="L53" s="4"/>
+      <c r="M53" s="4"/>
+      <c r="N53" s="4"/>
+    </row>
+    <row r="54" spans="1:14">
+      <c r="A54" s="4"/>
+      <c r="B54" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+      <c r="I54" s="4"/>
+      <c r="J54" s="4"/>
+      <c r="K54" s="4"/>
+      <c r="L54" s="4"/>
+      <c r="M54" s="4"/>
+      <c r="N54" s="4"/>
+    </row>
+    <row r="55" spans="1:14">
+      <c r="A55" s="4"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
+      <c r="I55" s="4"/>
+      <c r="J55" s="4"/>
+      <c r="K55" s="4"/>
+      <c r="L55" s="4"/>
+      <c r="M55" s="4"/>
+      <c r="N55" s="4"/>
+    </row>
+    <row r="56" spans="1:14">
+      <c r="A56" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
+      <c r="I56" s="4"/>
+      <c r="J56" s="4"/>
+      <c r="K56" s="4"/>
+      <c r="L56" s="4"/>
+      <c r="M56" s="4"/>
+      <c r="N56" s="4"/>
+    </row>
+    <row r="57" spans="1:14">
+      <c r="A57" s="4"/>
+      <c r="B57" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="4"/>
+      <c r="I57" s="4"/>
+      <c r="J57" s="4"/>
+      <c r="K57" s="4"/>
+      <c r="L57" s="4"/>
+      <c r="M57" s="4"/>
+      <c r="N57" s="4"/>
+    </row>
+    <row r="58" spans="1:14">
+      <c r="A58" s="4"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="4"/>
+      <c r="I58" s="4"/>
+      <c r="J58" s="4"/>
+      <c r="K58" s="4"/>
+      <c r="L58" s="4"/>
+      <c r="M58" s="4"/>
+      <c r="N58" s="4"/>
+    </row>
+    <row r="59" spans="1:14">
+      <c r="A59" s="4"/>
+      <c r="B59" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="4"/>
+      <c r="I59" s="4"/>
+      <c r="J59" s="4"/>
+      <c r="K59" s="4"/>
+      <c r="L59" s="4"/>
+      <c r="M59" s="4"/>
+      <c r="N59" s="4"/>
+    </row>
+    <row r="60" spans="1:14">
+      <c r="A60" s="4"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="4"/>
+      <c r="I60" s="4"/>
+      <c r="J60" s="4"/>
+      <c r="K60" s="4"/>
+      <c r="L60" s="4"/>
+      <c r="M60" s="4"/>
+      <c r="N60" s="4"/>
+    </row>
+    <row r="61" spans="1:14">
+      <c r="A61" s="4"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="4"/>
+      <c r="I61" s="4"/>
+      <c r="J61" s="4"/>
+      <c r="K61" s="4"/>
+      <c r="L61" s="4"/>
+      <c r="M61" s="4"/>
+      <c r="N61" s="4"/>
+    </row>
+    <row r="62" spans="1:14">
+      <c r="A62" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B62" s="4"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="4"/>
+      <c r="I62" s="4"/>
+      <c r="J62" s="4"/>
+      <c r="K62" s="4"/>
+      <c r="L62" s="4"/>
+      <c r="M62" s="4"/>
+      <c r="N62" s="4"/>
+    </row>
+    <row r="63" spans="1:14">
+      <c r="A63" s="4"/>
+      <c r="B63" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="4"/>
+      <c r="I63" s="4"/>
+      <c r="J63" s="4"/>
+      <c r="K63" s="4"/>
+      <c r="L63" s="4"/>
+      <c r="M63" s="4"/>
+      <c r="N63" s="4"/>
+    </row>
+    <row r="64" spans="1:14">
+      <c r="A64" s="4"/>
+      <c r="B64" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="4"/>
+      <c r="I64" s="4"/>
+      <c r="J64" s="4"/>
+      <c r="K64" s="4"/>
+      <c r="L64" s="4"/>
+      <c r="M64" s="4"/>
+      <c r="N64" s="4"/>
+    </row>
+    <row r="65" spans="1:14">
+      <c r="A65" s="4"/>
+      <c r="B65" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="4"/>
+      <c r="I65" s="4"/>
+      <c r="J65" s="4"/>
+      <c r="K65" s="4"/>
+      <c r="L65" s="4"/>
+      <c r="M65" s="4"/>
+      <c r="N65" s="4"/>
+    </row>
+    <row r="66" spans="1:14">
+      <c r="A66" s="4"/>
+      <c r="B66" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C66" s="4"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="4"/>
+      <c r="H66" s="4"/>
+      <c r="I66" s="4"/>
+      <c r="J66" s="4"/>
+      <c r="K66" s="4"/>
+      <c r="L66" s="4"/>
+      <c r="M66" s="4"/>
+      <c r="N66" s="4"/>
+    </row>
+    <row r="67" spans="1:14">
+      <c r="A67" s="4"/>
+      <c r="B67" s="4"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="4"/>
+      <c r="H67" s="4"/>
+      <c r="I67" s="4"/>
+      <c r="J67" s="4"/>
+      <c r="K67" s="4"/>
+      <c r="L67" s="4"/>
+      <c r="M67" s="4"/>
+      <c r="N67" s="4"/>
+    </row>
+    <row r="68" spans="1:14">
+      <c r="A68" s="4"/>
+      <c r="B68" s="4"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="4"/>
+      <c r="H68" s="4"/>
+      <c r="I68" s="4"/>
+      <c r="J68" s="4"/>
+      <c r="K68" s="4"/>
+      <c r="L68" s="4"/>
+      <c r="M68" s="4"/>
+      <c r="N68" s="4"/>
+    </row>
+    <row r="69" spans="1:14">
+      <c r="A69" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B69" s="4"/>
+      <c r="C69" s="4"/>
+      <c r="D69" s="4"/>
+      <c r="E69" s="4"/>
+      <c r="F69" s="4"/>
+      <c r="G69" s="4"/>
+      <c r="H69" s="4"/>
+      <c r="I69" s="4"/>
+      <c r="J69" s="4"/>
+      <c r="K69" s="4"/>
+      <c r="L69" s="4"/>
+      <c r="M69" s="4"/>
+      <c r="N69" s="4"/>
+    </row>
+    <row r="70" spans="1:14">
+      <c r="A70" s="4"/>
+      <c r="B70" s="4"/>
+      <c r="C70" s="4"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="4"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="4"/>
+      <c r="H70" s="4"/>
+      <c r="I70" s="4"/>
+      <c r="J70" s="4"/>
+      <c r="K70" s="4"/>
+      <c r="L70" s="4"/>
+      <c r="M70" s="4"/>
+      <c r="N70" s="4"/>
+    </row>
+    <row r="71" spans="1:14">
+      <c r="A71" s="4"/>
+      <c r="B71" s="4"/>
+      <c r="C71" s="4"/>
+      <c r="D71" s="4"/>
+      <c r="E71" s="4"/>
+      <c r="F71" s="4"/>
+      <c r="G71" s="4"/>
+      <c r="H71" s="4"/>
+      <c r="I71" s="4"/>
+      <c r="J71" s="4"/>
+      <c r="K71" s="4"/>
+      <c r="L71" s="4"/>
+      <c r="M71" s="4"/>
+      <c r="N71" s="4"/>
+    </row>
+    <row r="72" spans="1:14">
+      <c r="A72" s="4"/>
+      <c r="B72" s="4"/>
+      <c r="C72" s="4"/>
+      <c r="D72" s="4"/>
+      <c r="E72" s="4"/>
+      <c r="F72" s="4"/>
+      <c r="G72" s="4"/>
+      <c r="H72" s="4"/>
+      <c r="I72" s="4"/>
+      <c r="J72" s="4"/>
+      <c r="K72" s="4"/>
+      <c r="L72" s="4"/>
+      <c r="M72" s="4"/>
+      <c r="N72" s="4"/>
+    </row>
+    <row r="73" spans="1:14">
+      <c r="A73" s="4"/>
+      <c r="B73" s="4"/>
+      <c r="C73" s="4"/>
+      <c r="D73" s="4"/>
+      <c r="E73" s="4"/>
+      <c r="F73" s="4"/>
+      <c r="G73" s="4"/>
+      <c r="H73" s="4"/>
+      <c r="I73" s="4"/>
+      <c r="J73" s="4"/>
+      <c r="K73" s="4"/>
+      <c r="L73" s="4"/>
+      <c r="M73" s="4"/>
+      <c r="N73" s="4"/>
+    </row>
+    <row r="74" spans="1:14">
+      <c r="A74" s="4"/>
+      <c r="B74" s="4"/>
+      <c r="C74" s="4"/>
+      <c r="D74" s="4"/>
+      <c r="E74" s="4"/>
+      <c r="F74" s="4"/>
+      <c r="G74" s="4"/>
+      <c r="H74" s="4"/>
+      <c r="I74" s="4"/>
+      <c r="J74" s="4"/>
+      <c r="K74" s="4"/>
+      <c r="L74" s="4"/>
+      <c r="M74" s="4"/>
+      <c r="N74" s="4"/>
+    </row>
+    <row r="75" spans="1:14">
+      <c r="A75" s="4"/>
+      <c r="B75" s="4"/>
+      <c r="C75" s="4"/>
+      <c r="D75" s="4"/>
+      <c r="E75" s="4"/>
+      <c r="F75" s="4"/>
+      <c r="G75" s="4"/>
+      <c r="H75" s="4"/>
+      <c r="I75" s="4"/>
+      <c r="J75" s="4"/>
+      <c r="K75" s="4"/>
+      <c r="L75" s="4"/>
+      <c r="M75" s="4"/>
+      <c r="N75" s="4"/>
+    </row>
+    <row r="76" spans="1:14">
+      <c r="A76" s="4"/>
+      <c r="B76" s="4"/>
+      <c r="C76" s="4"/>
+      <c r="D76" s="4"/>
+      <c r="E76" s="4"/>
+      <c r="F76" s="4"/>
+      <c r="G76" s="4"/>
+      <c r="H76" s="4"/>
+      <c r="I76" s="4"/>
+      <c r="J76" s="4"/>
+      <c r="K76" s="4"/>
+      <c r="L76" s="4"/>
+      <c r="M76" s="4"/>
+      <c r="N76" s="4"/>
+    </row>
+    <row r="77" spans="1:14">
+      <c r="A77" s="4"/>
+      <c r="B77" s="4"/>
+      <c r="C77" s="4"/>
+      <c r="D77" s="4"/>
+      <c r="E77" s="4"/>
+      <c r="F77" s="4"/>
+      <c r="G77" s="4"/>
+      <c r="H77" s="4"/>
+      <c r="I77" s="4"/>
+      <c r="J77" s="4"/>
+      <c r="K77" s="4"/>
+      <c r="L77" s="4"/>
+      <c r="M77" s="4"/>
+      <c r="N77" s="4"/>
+    </row>
+    <row r="78" spans="1:14">
+      <c r="A78" s="4"/>
+      <c r="B78" s="4"/>
+      <c r="C78" s="4"/>
+      <c r="D78" s="4"/>
+      <c r="E78" s="4"/>
+      <c r="F78" s="4"/>
+      <c r="G78" s="4"/>
+      <c r="H78" s="4"/>
+      <c r="I78" s="4"/>
+      <c r="J78" s="4"/>
+      <c r="K78" s="4"/>
+      <c r="L78" s="4"/>
+      <c r="M78" s="4"/>
+      <c r="N78" s="4"/>
+    </row>
+    <row r="79" spans="1:14">
+      <c r="A79" s="4"/>
+      <c r="B79" s="4"/>
+      <c r="C79" s="4"/>
+      <c r="D79" s="4"/>
+      <c r="E79" s="4"/>
+      <c r="F79" s="4"/>
+      <c r="G79" s="4"/>
+      <c r="H79" s="4"/>
+      <c r="I79" s="4"/>
+      <c r="J79" s="4"/>
+      <c r="K79" s="4"/>
+      <c r="L79" s="4"/>
+      <c r="M79" s="4"/>
+      <c r="N79" s="4"/>
+    </row>
+    <row r="80" spans="1:14">
+      <c r="A80" s="4"/>
+      <c r="B80" s="4"/>
+      <c r="C80" s="4"/>
+      <c r="D80" s="4"/>
+      <c r="E80" s="4"/>
+      <c r="F80" s="4"/>
+      <c r="G80" s="4"/>
+      <c r="H80" s="4"/>
+      <c r="I80" s="4"/>
+      <c r="J80" s="4"/>
+      <c r="K80" s="4"/>
+      <c r="L80" s="4"/>
+      <c r="M80" s="4"/>
+      <c r="N80" s="4"/>
+    </row>
+    <row r="81" spans="1:14">
+      <c r="A81" s="4"/>
+      <c r="B81" s="4"/>
+      <c r="C81" s="4"/>
+      <c r="D81" s="4"/>
+      <c r="E81" s="4"/>
+      <c r="F81" s="4"/>
+      <c r="G81" s="4"/>
+      <c r="H81" s="4"/>
+      <c r="I81" s="4"/>
+      <c r="J81" s="4"/>
+      <c r="K81" s="4"/>
+      <c r="L81" s="4"/>
+      <c r="M81" s="4"/>
+      <c r="N81" s="4"/>
+    </row>
+    <row r="82" spans="1:14">
+      <c r="A82" s="4"/>
+      <c r="B82" s="4"/>
+      <c r="C82" s="4"/>
+      <c r="D82" s="4"/>
+      <c r="E82" s="4"/>
+      <c r="F82" s="4"/>
+      <c r="G82" s="4"/>
+      <c r="H82" s="4"/>
+      <c r="I82" s="4"/>
+      <c r="J82" s="4"/>
+      <c r="K82" s="4"/>
+      <c r="L82" s="4"/>
+      <c r="M82" s="4"/>
+      <c r="N82" s="4"/>
+    </row>
+    <row r="83" spans="1:14">
+      <c r="A83" s="4"/>
+      <c r="B83" s="4"/>
+      <c r="C83" s="4"/>
+      <c r="D83" s="4"/>
+      <c r="E83" s="4"/>
+      <c r="F83" s="4"/>
+      <c r="G83" s="4"/>
+      <c r="H83" s="4"/>
+      <c r="I83" s="4"/>
+      <c r="J83" s="4"/>
+      <c r="K83" s="4"/>
+      <c r="L83" s="4"/>
+      <c r="M83" s="4"/>
+      <c r="N83" s="4"/>
+    </row>
+    <row r="84" spans="1:14">
+      <c r="A84" s="4"/>
+      <c r="B84" s="4"/>
+      <c r="C84" s="4"/>
+      <c r="D84" s="4"/>
+      <c r="E84" s="4"/>
+      <c r="F84" s="4"/>
+      <c r="G84" s="4"/>
+      <c r="H84" s="4"/>
+      <c r="I84" s="4"/>
+      <c r="J84" s="4"/>
+      <c r="K84" s="4"/>
+      <c r="L84" s="4"/>
+      <c r="M84" s="4"/>
+      <c r="N84" s="4"/>
+    </row>
+    <row r="85" spans="1:14">
+      <c r="A85" s="4"/>
+      <c r="B85" s="4"/>
+      <c r="C85" s="4"/>
+      <c r="D85" s="4"/>
+      <c r="E85" s="4"/>
+      <c r="F85" s="4"/>
+      <c r="G85" s="4"/>
+      <c r="H85" s="4"/>
+      <c r="I85" s="4"/>
+      <c r="J85" s="4"/>
+      <c r="K85" s="4"/>
+      <c r="L85" s="4"/>
+      <c r="M85" s="4"/>
+      <c r="N85" s="4"/>
+    </row>
+    <row r="86" spans="1:14">
+      <c r="A86" s="4"/>
+      <c r="B86" s="4"/>
+      <c r="C86" s="4"/>
+      <c r="D86" s="4"/>
+      <c r="E86" s="4"/>
+      <c r="F86" s="4"/>
+      <c r="G86" s="4"/>
+      <c r="H86" s="4"/>
+      <c r="I86" s="4"/>
+      <c r="J86" s="4"/>
+      <c r="K86" s="4"/>
+      <c r="L86" s="4"/>
+      <c r="M86" s="4"/>
+      <c r="N86" s="4"/>
+    </row>
+    <row r="87" spans="1:14">
+      <c r="A87" s="4"/>
+      <c r="B87" s="4"/>
+      <c r="C87" s="4"/>
+      <c r="D87" s="4"/>
+      <c r="E87" s="4"/>
+      <c r="F87" s="4"/>
+      <c r="G87" s="4"/>
+      <c r="H87" s="4"/>
+      <c r="I87" s="4"/>
+      <c r="J87" s="4"/>
+      <c r="K87" s="4"/>
+      <c r="L87" s="4"/>
+      <c r="M87" s="4"/>
+      <c r="N87" s="4"/>
+    </row>
+    <row r="88" spans="1:14">
+      <c r="A88" s="4"/>
+      <c r="B88" s="4"/>
+      <c r="C88" s="4"/>
+      <c r="D88" s="4"/>
+      <c r="E88" s="4"/>
+      <c r="F88" s="4"/>
+      <c r="G88" s="4"/>
+      <c r="H88" s="4"/>
+      <c r="I88" s="4"/>
+      <c r="J88" s="4"/>
+      <c r="K88" s="4"/>
+      <c r="L88" s="4"/>
+      <c r="M88" s="4"/>
+      <c r="N88" s="4"/>
+    </row>
+    <row r="89" spans="1:14">
+      <c r="A89" s="4"/>
+      <c r="B89" s="4"/>
+      <c r="C89" s="4"/>
+      <c r="D89" s="4"/>
+      <c r="E89" s="4"/>
+      <c r="F89" s="4"/>
+      <c r="G89" s="4"/>
+      <c r="H89" s="4"/>
+      <c r="I89" s="4"/>
+      <c r="J89" s="4"/>
+      <c r="K89" s="4"/>
+      <c r="L89" s="4"/>
+      <c r="M89" s="4"/>
+      <c r="N89" s="4"/>
+    </row>
+    <row r="90" spans="1:14">
+      <c r="A90" s="4"/>
+      <c r="B90" s="4"/>
+      <c r="C90" s="4"/>
+      <c r="D90" s="4"/>
+      <c r="E90" s="4"/>
+      <c r="F90" s="4"/>
+      <c r="G90" s="4"/>
+      <c r="H90" s="4"/>
+      <c r="I90" s="4"/>
+      <c r="J90" s="4"/>
+      <c r="K90" s="4"/>
+      <c r="L90" s="4"/>
+      <c r="M90" s="4"/>
+      <c r="N90" s="4"/>
+    </row>
+    <row r="91" spans="1:14">
+      <c r="A91" s="4"/>
+      <c r="B91" s="4"/>
+      <c r="C91" s="4"/>
+      <c r="D91" s="4"/>
+      <c r="E91" s="4"/>
+      <c r="F91" s="4"/>
+      <c r="G91" s="4"/>
+      <c r="H91" s="4"/>
+      <c r="I91" s="4"/>
+      <c r="J91" s="4"/>
+      <c r="K91" s="4"/>
+      <c r="L91" s="4"/>
+      <c r="M91" s="4"/>
+      <c r="N91" s="4"/>
+    </row>
+    <row r="92" spans="1:14">
+      <c r="A92" s="4"/>
+      <c r="B92" s="4"/>
+      <c r="C92" s="4"/>
+      <c r="D92" s="4"/>
+      <c r="E92" s="4"/>
+      <c r="F92" s="4"/>
+      <c r="G92" s="4"/>
+      <c r="H92" s="4"/>
+      <c r="I92" s="4"/>
+      <c r="J92" s="4"/>
+      <c r="K92" s="4"/>
+      <c r="L92" s="4"/>
+      <c r="M92" s="4"/>
+      <c r="N92" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>